--- a/biology/Zoologie/Émissole_lisse/Émissole_lisse.xlsx
+++ b/biology/Zoologie/Émissole_lisse/Émissole_lisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89missole_lisse</t>
+          <t>Émissole_lisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mustelus mustelus, l'Émissole lisse[1],[2], est une espèce de requins de la famille des Triakidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mustelus mustelus, l'Émissole lisse est une espèce de requins de la famille des Triakidae.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89missole_lisse</t>
+          <t>Émissole_lisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mustelus mustelus se rencontre dans l'Atlantique est, depuis les côtes britanniques jusqu'à celles du Maroc et des Canaries et de l'Angola jusqu'à l'Afrique du Sud[1]. Ce requin est également présent en Méditerranée et dans l'océan Indien[1]. Il est parfois mentionné sous le taxon Mustelus canis bien que celui-ci soit restreint à l'Atlantique ouest[1].
-Cette espèce est présente aux profondeurs comprises entre 5 et 624 m mais, plus généralement, entre 5 et 50 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mustelus mustelus se rencontre dans l'Atlantique est, depuis les côtes britanniques jusqu'à celles du Maroc et des Canaries et de l'Angola jusqu'à l'Afrique du Sud. Ce requin est également présent en Méditerranée et dans l'océan Indien. Il est parfois mentionné sous le taxon Mustelus canis bien que celui-ci soit restreint à l'Atlantique ouest.
+Cette espèce est présente aux profondeurs comprises entre 5 et 624 m mais, plus généralement, entre 5 et 50 m.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89missole_lisse</t>
+          <t>Émissole_lisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Mustelus mustelus a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778) sous le protonyme Squalus mustelus[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Mustelus mustelus a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778) sous le protonyme Squalus mustelus.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : 
 Chien de mer ;
 Émissole ;
 Émissole douce ;
@@ -559,7 +575,7 @@
 Missole ;
 Mustèle vulgaire ;
 Palloun.
-Mustelus mustelus a pour synonymes[3] :
+Mustelus mustelus a pour synonymes :
 Galeus laevis Risso, 1820
 Mustellus levis (Risso, 1820)
 Mustelus equestris Bonaparte, 1834
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89missole_lisse</t>
+          <t>Émissole_lisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,10 +609,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mustelus mustelus peut atteindre une longueur maximale de 200 cm mais sa taille habituelle est d'environ 100 cm[1]. Son espérance de vie constatée est de 24 ans[1].
-C'est un requin vivipare qui donne naissance entre 4 et 17 petits par portée[1]. Leur taille à la naissance est d'environ 39 cm[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mustelus mustelus peut atteindre une longueur maximale de 200 cm mais sa taille habituelle est d'environ 100 cm. Son espérance de vie constatée est de 24 ans.
+C'est un requin vivipare qui donne naissance entre 4 et 17 petits par portée. Leur taille à la naissance est d'environ 39 cm.
 </t>
         </is>
       </c>
